--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -95,7 +95,28 @@
     <t>RO.FOU</t>
   </si>
   <si>
-    <t>MP.CPT.001.LEC</t>
+    <t>MP.CPT</t>
+  </si>
+  <si>
+    <t>ZZ.XXX.001.CRE</t>
+  </si>
+  <si>
+    <t>ZZ.XXX</t>
+  </si>
+  <si>
+    <t>ZZ.XXX.001.CRE.0</t>
+  </si>
+  <si>
+    <t>ZZ.XXX.001.LEC.0</t>
+  </si>
+  <si>
+    <t>ZZ.XXX.001.LEC.02</t>
+  </si>
+  <si>
+    <t>ZZ.XXX.001.LEC</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.CRE</t>
   </si>
 </sst>
 </file>
@@ -453,23 +474,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,83 +498,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:4">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4">
       <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:4">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4">
       <c r="A21" s="2"/>
     </row>
   </sheetData>
@@ -566,7 +613,7 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -116,7 +116,7 @@
     <t>ZZ.XXX.001.LEC</t>
   </si>
   <si>
-    <t>RO.FOU.001.CRE</t>
+    <t>RO.FOU.001.CRE.01</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -504,16 +504,15 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
@@ -537,7 +536,6 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
@@ -555,7 +553,6 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
@@ -570,7 +567,6 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
       <c r="E12" t="s">
         <v>19</v>
       </c>
@@ -591,7 +587,6 @@
       <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
@@ -613,7 +608,7 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>ZZ.XXX.001.LEC</t>
-  </si>
-  <si>
-    <t>RO.FOU.001.CRE.01</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A8:A9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -500,25 +497,31 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
@@ -527,7 +530,9 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
@@ -536,6 +541,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>ZZ.XXX.001.LEC</t>
+  </si>
+  <si>
+    <t>RT.ART.001.LEC</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -497,31 +500,25 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
@@ -530,9 +527,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
@@ -541,9 +536,6 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>ZZ.XXX.001.LEC</t>
-  </si>
-  <si>
-    <t>RT.ART.001.LEC</t>
   </si>
 </sst>
 </file>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -500,76 +497,88 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
+      <c r="E10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
@@ -581,22 +590,16 @@
       <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
+    <row r="18" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -497,20 +497,20 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -520,9 +520,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
@@ -531,9 +529,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
@@ -542,9 +538,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
@@ -553,9 +547,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>ZZ.XXX.001.LEC</t>
+  </si>
+  <si>
+    <t>RT.ART</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -502,16 +505,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
@@ -529,7 +529,6 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
@@ -547,7 +546,6 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
@@ -562,6 +560,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
       <c r="E10" t="s">
         <v>19</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>ZZ.XXX.001.LEC</t>
-  </si>
-  <si>
-    <t>RT.ART</t>
   </si>
 </sst>
 </file>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -490,7 +487,7 @@
     <col min="6" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,89 +495,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:1">
@@ -599,10 +547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F14"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -692,29 +640,52 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -474,7 +474,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -497,27 +497,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
@@ -550,7 +561,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>ZZ.XXX.001.LEC</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.SUP.01</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -497,38 +500,25 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
@@ -561,7 +551,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -116,7 +116,10 @@
     <t>ZZ.XXX.001.LEC</t>
   </si>
   <si>
-    <t>RO.FOU.001.SUP.01</t>
+    <t>RT.ART</t>
+  </si>
+  <si>
+    <t>RT.ART.001.MAJ</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -505,14 +508,8 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2"/>
@@ -551,7 +548,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -644,6 +641,9 @@
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -119,7 +119,7 @@
     <t>RT.ART</t>
   </si>
   <si>
-    <t>RT.ART.001.MAJ</t>
+    <t>RT.ART.001.CRE</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -119,7 +119,10 @@
     <t>RT.ART</t>
   </si>
   <si>
-    <t>RT.ART.001.CRE</t>
+    <t>RT.MAT.001.REC</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.SUP</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -509,6 +512,11 @@
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>RT.MAT.001.REC</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.SUP</t>
   </si>
 </sst>
 </file>
@@ -483,7 +480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -512,11 +509,6 @@
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -119,7 +119,7 @@
     <t>RT.ART</t>
   </si>
   <si>
-    <t>RT.MAT.001.REC</t>
+    <t>AD.DEP.001.FON.01</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -507,7 +507,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -545,7 +545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -636,57 +636,65 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -507,8 +507,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -548,7 +548,7 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -503,19 +503,48 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
@@ -545,10 +574,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -649,9 +678,6 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
@@ -671,7 +697,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -679,7 +705,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -687,14 +713,24 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>AD.DEP.001.FON.01</t>
+  </si>
+  <si>
+    <t>RT.MAT</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.LEC</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="C10" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -503,69 +509,36 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A9" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -678,6 +651,9 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>RT.MAT</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.LEC</t>
   </si>
 </sst>
 </file>
@@ -486,7 +483,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C9:C10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -509,33 +506,43 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-    </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2"/>
@@ -550,7 +557,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>RT.MAT</t>
+  </si>
+  <si>
+    <t>RO.ORG</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.REC</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -506,43 +512,31 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2"/>
@@ -557,7 +551,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -669,6 +663,9 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>RO.ORG</t>
-  </si>
-  <si>
-    <t>RO.ORG.001.REC</t>
   </si>
 </sst>
 </file>
@@ -489,7 +486,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -512,31 +509,48 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2"/>
@@ -551,7 +565,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -483,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -509,51 +509,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="2"/>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -509,16 +509,49 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -126,6 +126,45 @@
   </si>
   <si>
     <t>RO.ORG</t>
+  </si>
+  <si>
+    <t>RO.ACT.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.003</t>
+  </si>
+  <si>
+    <t>RO.ACT.005</t>
+  </si>
+  <si>
+    <t>RT.ART.001.CRE</t>
+  </si>
+  <si>
+    <t>RT.ART.001.LEC</t>
+  </si>
+  <si>
+    <t>RT.ART.001.SUP</t>
+  </si>
+  <si>
+    <t>RT.ART.001.MAJ</t>
+  </si>
+  <si>
+    <t>RT.ART.001.REC</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.LEC</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.SUP</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.MAJ</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.REC</t>
   </si>
 </sst>
 </file>
@@ -486,7 +525,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -509,49 +548,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" t="s">
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -560,10 +585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -649,13 +674,24 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="2:6">
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2"/>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -667,6 +703,9 @@
       <c r="D11" t="s">
         <v>35</v>
       </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
@@ -678,6 +717,9 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -694,6 +736,9 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
@@ -702,6 +747,9 @@
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2" t="s">
@@ -710,19 +758,98 @@
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -554,12 +554,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2"/>
@@ -588,7 +591,7 @@
   <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -554,31 +554,26 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="2"/>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+    </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
       <c r="D10" s="2"/>
     </row>
   </sheetData>
@@ -591,7 +586,7 @@
   <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F14" sqref="F14:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -554,11 +554,14 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
@@ -586,7 +589,7 @@
   <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>RO.ORG.001.REC</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.01</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -554,14 +557,11 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -128,15 +128,6 @@
     <t>RO.ORG</t>
   </si>
   <si>
-    <t>RO.ACT.001</t>
-  </si>
-  <si>
-    <t>RO.ACT.003</t>
-  </si>
-  <si>
-    <t>RO.ACT.005</t>
-  </si>
-  <si>
     <t>RT.ART.001.CRE</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
   </si>
   <si>
     <t>RO.ORG.001.REC</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.01</t>
   </si>
 </sst>
 </file>
@@ -525,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -539,6 +527,7 @@
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -557,7 +546,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -567,29 +556,18 @@
     <row r="5" spans="1:4">
       <c r="D5" s="2"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F36"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -677,7 +655,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="F8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -685,13 +663,13 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2"/>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -705,7 +683,7 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -719,7 +697,7 @@
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -738,7 +716,7 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -749,7 +727,7 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -760,7 +738,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -768,7 +746,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -776,81 +754,11 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>RO.ORG.001.REC</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.01</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -567,7 +570,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>RO.ORG.001.REC</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.01</t>
   </si>
 </sst>
 </file>
@@ -519,7 +516,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -549,7 +546,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -570,7 +567,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -546,11 +546,14 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
@@ -564,10 +567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -759,6 +762,16 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>RO.ORG.001.REC</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.04</t>
   </si>
 </sst>
 </file>
@@ -513,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -546,18 +558,31 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A12"/>
+      <selection activeCell="A6" sqref="A6:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -552,37 +552,36 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>48</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -592,10 +591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F21"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -781,6 +780,9 @@
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
@@ -789,14 +791,33 @@
       <c r="B19" t="s">
         <v>35</v>
       </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
         <v>36</v>
       </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -168,6 +168,30 @@
   </si>
   <si>
     <t>RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>RO.ACT.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.003</t>
+  </si>
+  <si>
+    <t>RO.ACT.005</t>
+  </si>
+  <si>
+    <t>RO.FOU.001</t>
+  </si>
+  <si>
+    <t>MP.CPT.001</t>
+  </si>
+  <si>
+    <t>RT.ART.001</t>
+  </si>
+  <si>
+    <t>RT.MAT.001</t>
+  </si>
+  <si>
+    <t>RO.ORG.001</t>
   </si>
 </sst>
 </file>
@@ -525,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -537,9 +561,7 @@
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -560,28 +582,62 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -591,10 +647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -815,10 +871,46 @@
       <c r="C22" t="s">
         <v>50</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="C23" t="s">
         <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="F25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="F26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="F27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="F29" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -552,7 +552,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -576,66 +576,104 @@
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>57</v>
       </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>58</v>
       </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -650,7 +688,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -552,7 +552,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -590,89 +590,66 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
       <c r="D12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
       <c r="D13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -582,7 +582,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>RO.ORG.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.LEC.01</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -582,7 +585,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -664,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -194,7 +194,7 @@
     <t>RO.ORG.001</t>
   </si>
   <si>
-    <t>RO.ACT.001.LEC.01</t>
+    <t>RT.MAT.001.CRE</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -584,7 +584,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="2"/>
@@ -593,9 +593,6 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -625,13 +622,11 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>55</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -194,7 +194,7 @@
     <t>RO.ORG.001</t>
   </si>
   <si>
-    <t>RT.MAT.001.CRE</t>
+    <t>RT.EQU.001.LEC</t>
   </si>
 </sst>
 </file>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -194,7 +194,10 @@
     <t>RO.ORG.001</t>
   </si>
   <si>
-    <t>RT.EQU.001.LEC</t>
+    <t>RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.MAJ.01</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -593,30 +596,29 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
@@ -632,7 +634,6 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
@@ -663,7 +664,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -194,10 +194,10 @@
     <t>RO.ORG.001</t>
   </si>
   <si>
-    <t>RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.MAJ.01</t>
+    <t>RT.EQU</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.MAJ</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+      <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -588,7 +588,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -596,9 +596,6 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -664,7 +661,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -804,6 +801,9 @@
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2" t="s">
@@ -875,13 +875,16 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
       <c r="C22" t="s">
         <v>50</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -197,7 +197,10 @@
     <t>RT.EQU</t>
   </si>
   <si>
-    <t>RT.EQU.001.MAJ</t>
+    <t>RT.EQU.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRA.01</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:A10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -587,8 +590,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>60</v>
+      <c r="A3" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -596,31 +599,37 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>54</v>
       </c>
@@ -647,6 +656,11 @@
     </row>
     <row r="14" spans="1:4">
       <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -661,7 +675,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>RT.EQU.001</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRA.01</t>
   </si>
 </sst>
 </file>
@@ -558,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -583,7 +580,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -591,7 +588,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -599,68 +596,82 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="D10" s="2" t="s">
-        <v>55</v>
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="D11" s="2" t="s">
-        <v>56</v>
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -197,14 +197,47 @@
     <t>RT.EQU</t>
   </si>
   <si>
-    <t>RT.EQU.001</t>
+    <t>LOT 1A</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.MAJ</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.CRE.01</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.MAJ</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.LEC</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.LEC</t>
+  </si>
+  <si>
+    <t>RT.ART.001.CRE.01</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.CRE.01</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.MAJ</t>
+  </si>
+  <si>
+    <t>RT.EQU.001.LEC</t>
+  </si>
+  <si>
+    <t>MEMO</t>
+  </si>
+  <si>
+    <t>RT.ART.001.CRE.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +255,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,12 +295,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -566,11 +608,11 @@
     <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,101 +620,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="D12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -685,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -230,7 +230,7 @@
     <t>MEMO</t>
   </si>
   <si>
-    <t>RT.ART.001.CRE.02</t>
+    <t>TR.BTR.001.LEC</t>
   </si>
 </sst>
 </file>
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -609,10 +609,11 @@
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -631,7 +632,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -642,18 +643,22 @@
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
@@ -661,8 +666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:8">
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
@@ -670,8 +674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:8">
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -679,8 +682,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:8">
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -688,8 +690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:8">
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
@@ -697,7 +698,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -705,7 +706,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -713,7 +714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -721,7 +722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="D13" t="s">
         <v>59</v>
       </c>
@@ -729,7 +730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -737,7 +738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="F15" s="2" t="s">
         <v>69</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -623,7 +623,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>60</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -648,6 +648,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -659,6 +662,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
@@ -667,6 +673,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
@@ -675,6 +684,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -683,6 +695,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -691,6 +706,9 @@
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
@@ -699,6 +717,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -707,6 +728,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -715,6 +739,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -723,6 +750,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -704,6 +704,9 @@
       <c r="F8" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -673,8 +673,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -684,9 +684,6 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -695,9 +692,6 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -709,9 +703,6 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
@@ -720,9 +711,6 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -731,9 +719,6 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -742,9 +727,6 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -753,9 +735,6 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>TR.BTR.001.LEC</t>
+  </si>
+  <si>
+    <t>MP.CPT.001.CRE</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -623,7 +626,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>60</v>
@@ -633,8 +636,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -648,9 +651,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -662,9 +662,6 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
@@ -673,9 +670,6 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
@@ -717,6 +711,9 @@
       <c r="F10" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="D11" t="s">
@@ -735,6 +732,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>59</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -636,8 +636,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -651,6 +651,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -751,6 +754,24 @@
     <row r="15" spans="1:8">
       <c r="F15" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -626,7 +626,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>60</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -651,8 +651,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -665,6 +665,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
@@ -673,6 +676,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
@@ -681,6 +687,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -689,6 +698,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -700,6 +712,9 @@
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
@@ -708,6 +723,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -719,6 +737,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -727,6 +748,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -735,6 +759,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>59</v>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -676,8 +676,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -687,9 +687,6 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -698,9 +695,6 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -712,9 +706,6 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
@@ -723,9 +714,6 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -737,9 +725,6 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -748,9 +733,6 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -759,9 +741,6 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>59</v>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -676,8 +676,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -687,6 +687,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -695,6 +698,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -706,6 +712,9 @@
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
@@ -714,6 +723,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -725,6 +737,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -733,6 +748,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -741,6 +759,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>59</v>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -603,7 +603,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C8:C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -812,7 +812,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -603,7 +603,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="0" windowWidth="7380" windowHeight="3300"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="7380" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -230,10 +230,7 @@
     <t>MEMO</t>
   </si>
   <si>
-    <t>TR.BTR.001.LEC</t>
-  </si>
-  <si>
-    <t>MP.CPT.001.CRE</t>
+    <t>LOGIN</t>
   </si>
 </sst>
 </file>
@@ -603,20 +600,20 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,6 +631,9 @@
       <c r="F2" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -661,7 +661,7 @@
         <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -674,6 +674,9 @@
       <c r="F5" t="s">
         <v>64</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
@@ -685,6 +688,9 @@
       <c r="F6" t="s">
         <v>61</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
@@ -696,6 +702,9 @@
       <c r="F7" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
@@ -707,9 +716,6 @@
       <c r="F8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
@@ -732,9 +738,7 @@
       <c r="F10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -812,12 +816,12 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="6" width="21.33203125" customWidth="1"/>
+    <col min="2" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -623,7 +623,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>60</v>
@@ -636,8 +636,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -651,9 +651,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -665,9 +662,6 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
@@ -679,9 +673,6 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
@@ -693,9 +684,6 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -707,9 +695,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -718,32 +704,29 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -752,9 +735,6 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -763,9 +743,6 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>59</v>
@@ -786,22 +763,24 @@
       <c r="F15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="H16" t="s">
+    <row r="22" spans="8:8">
+      <c r="H22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
-      <c r="H17" t="s">
+    <row r="23" spans="8:8">
+      <c r="H23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="8:8">
-      <c r="H18" t="s">
+    <row r="24" spans="8:8">
+      <c r="H24" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="7380" windowHeight="3300"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="7380" windowHeight="3300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -231,6 +232,36 @@
   </si>
   <si>
     <t>LOGIN</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reprostep</t>
+  </si>
+  <si>
+    <t>Héraclès\GMAO</t>
+  </si>
+  <si>
+    <t>Héraclès\GMAO\MCO\X3i\Retour TNR X3i</t>
+  </si>
+  <si>
+    <t>ID_CODUTI' : La valeur attendue est 'TNR COUCOU' et la valeur en BD est  : 'TNR'</t>
+  </si>
+  <si>
+    <t>Exemple</t>
+  </si>
+  <si>
+    <t>Règles</t>
   </si>
 </sst>
 </file>
@@ -295,13 +326,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -637,7 +669,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -651,6 +683,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1067,4 +1102,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D12:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="7380" windowHeight="3300" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="7380" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -232,36 +231,6 @@
   </si>
   <si>
     <t>LOGIN</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Iteration</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Reprostep</t>
-  </si>
-  <si>
-    <t>Héraclès\GMAO</t>
-  </si>
-  <si>
-    <t>Héraclès\GMAO\MCO\X3i\Retour TNR X3i</t>
-  </si>
-  <si>
-    <t>ID_CODUTI' : La valeur attendue est 'TNR COUCOU' et la valeur en BD est  : 'TNR'</t>
-  </si>
-  <si>
-    <t>Exemple</t>
-  </si>
-  <si>
-    <t>Règles</t>
   </si>
 </sst>
 </file>
@@ -326,14 +295,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -669,7 +637,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -683,9 +651,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1102,71 +1067,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D12:D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -636,8 +636,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -651,6 +651,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -623,7 +623,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>60</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -651,8 +651,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -665,6 +665,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
@@ -676,6 +679,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
@@ -687,6 +693,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
@@ -698,7 +707,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -707,7 +718,9 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
@@ -719,6 +732,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
@@ -730,6 +746,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
@@ -738,6 +757,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -746,6 +768,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>59</v>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -620,19 +620,28 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>71</v>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -641,13 +650,13 @@
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -655,13 +664,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -669,13 +678,13 @@
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -683,13 +692,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -697,13 +706,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -711,10 +717,13 @@
         <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -722,27 +731,24 @@
         <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
+      <c r="D10" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -750,10 +756,10 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -761,10 +767,10 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -773,22 +779,14 @@
       </c>
       <c r="B13" s="2"/>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="F15" s="2" t="s">
         <v>69</v>
       </c>
     </row>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B14" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -688,8 +688,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -702,9 +702,6 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
@@ -713,9 +710,6 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
@@ -727,9 +721,6 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
@@ -741,9 +732,6 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
@@ -752,9 +740,6 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
@@ -763,9 +748,6 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
@@ -774,9 +756,6 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
       <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>19</v>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B13:B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>LOGIN</t>
+  </si>
+  <si>
+    <t>RT.ART.001.LEC.01</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -632,7 +635,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -645,8 +648,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>72</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -660,8 +663,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -674,9 +677,6 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
@@ -688,9 +688,6 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
@@ -767,6 +764,11 @@
     <row r="14" spans="1:8">
       <c r="F14" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="H15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="8:8">

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -648,8 +648,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>72</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -663,8 +663,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -677,6 +677,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
@@ -688,6 +691,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
@@ -699,6 +705,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
@@ -707,6 +716,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
@@ -718,6 +730,9 @@
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
@@ -729,6 +744,9 @@
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
@@ -737,6 +755,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" t="s">
         <v>36</v>
       </c>
@@ -745,6 +766,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
@@ -753,6 +777,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="D13" t="s">
         <v>19</v>

--- a/TNR/_TNRSequencer.xlsx
+++ b/TNR/_TNRSequencer.xlsx
@@ -603,7 +603,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
